--- a/support/box organization.xlsx
+++ b/support/box organization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="214">
   <si>
     <t>A</t>
   </si>
@@ -157,9 +157,6 @@
     <t>Schemes</t>
   </si>
   <si>
-    <t>Horrors</t>
-  </si>
-  <si>
     <t>Ambitions</t>
   </si>
   <si>
@@ -188,12 +185,6 @@
   </si>
   <si>
     <t>Hero Teams</t>
-  </si>
-  <si>
-    <t>SHIELD Officers, Scheme Twists,</t>
-  </si>
-  <si>
-    <t>Master Strikes, Wounds, Tokens</t>
   </si>
   <si>
     <t>Dragon Shield box</t>
@@ -774,9 +765,6 @@
     <t>SHIELD/HYDRA</t>
   </si>
   <si>
-    <t>Madame Hydra/New Recrutis</t>
-  </si>
-  <si>
     <t>Guardians ot Galaxy</t>
   </si>
   <si>
@@ -920,6 +908,15 @@
   </si>
   <si>
     <t>Her ability is a Fight effect.</t>
+  </si>
+  <si>
+    <t>SHIELD Officers</t>
+  </si>
+  <si>
+    <t>Twists, Strikes, Wounds</t>
+  </si>
+  <si>
+    <t>Horrors / tokens</t>
   </si>
 </sst>
 </file>
@@ -1164,44 +1161,44 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1500,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1515,170 +1512,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
       <c r="G1" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="I1" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="28"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="30" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="23" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="5"/>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="32" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="B3" s="30"/>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="26"/>
+      <c r="G3" s="34"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="27"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="24"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="30"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="5"/>
       <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32" t="s">
+      <c r="I5" s="36"/>
+      <c r="J5" s="36" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="5"/>
       <c r="G6" s="20" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="32"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="36"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="30"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="24"/>
+      <c r="I7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="28" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="25" t="s">
+      <c r="D8" s="34"/>
+      <c r="E8" s="30" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="36"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+        <v>156</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="5"/>
       <c r="G9" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="24"/>
+      <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="33"/>
+        <v>53</v>
+      </c>
+      <c r="G11" s="24"/>
       <c r="H11" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I11" s="22"/>
     </row>
@@ -1689,8 +1686,8 @@
       <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="34" t="s">
-        <v>162</v>
+      <c r="G12" s="25" t="s">
+        <v>159</v>
       </c>
       <c r="H12" t="s">
         <v>6</v>
@@ -1706,12 +1703,12 @@
       <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="34"/>
+      <c r="G13" s="25"/>
       <c r="H13" t="s">
         <v>22</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1722,7 +1719,7 @@
         <v>35</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H14" t="s">
         <v>12</v>
@@ -1736,49 +1733,52 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>212</v>
       </c>
       <c r="H15" t="s">
         <v>19</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s">
         <v>25</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>9</v>
@@ -1792,19 +1792,19 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H19" t="s">
         <v>24</v>
       </c>
       <c r="I19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1815,21 +1815,21 @@
         <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1837,10 +1837,10 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>213</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H22" t="s">
         <v>2</v>
@@ -1854,7 +1854,7 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
         <v>5</v>
@@ -1864,33 +1864,33 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>170</v>
-      </c>
       <c r="H24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:9">
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H26" t="s">
         <v>9</v>
@@ -1900,53 +1900,47 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H27" t="s">
         <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>28</v>
+      <c r="C28" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="H28" t="s">
         <v>23</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="B29" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="H29" t="s">
         <v>21</v>
       </c>
       <c r="I29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="H30" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I30" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1970,11 +1964,6 @@
     <sortCondition ref="I12"/>
   </sortState>
   <mergeCells count="17">
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="E8:E9"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="D2:D9"/>
@@ -1987,6 +1976,11 @@
     <mergeCell ref="J5:J7"/>
     <mergeCell ref="I2:I6"/>
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1997,7 +1991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -2009,522 +2003,522 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.25">
       <c r="A3" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="26.25">
       <c r="A12" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="26.25">
       <c r="A14" s="12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="26.25">
       <c r="A17" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="26.25">
       <c r="A20" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.25" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="26.25">
       <c r="A47" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="26.25">
       <c r="A53" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="26.25">
       <c r="A57" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2549,35 +2543,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" t="s">
         <v>210</v>
-      </c>
-      <c r="C3" t="s">
-        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/support/box organization.xlsx
+++ b/support/box organization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="228">
   <si>
     <t>A</t>
   </si>
@@ -917,6 +917,48 @@
   </si>
   <si>
     <t>Horrors / tokens</t>
+  </si>
+  <si>
+    <t>Sidekick stack</t>
+  </si>
+  <si>
+    <t>SHIELD Officer Stack</t>
+  </si>
+  <si>
+    <t>Face-down. Includes Sidekicks, custom (Avengers) Sidekicks and New Recruits. Any mention of Sidekick or New Recruits refers to this stack.</t>
+  </si>
+  <si>
+    <t>Face-down. Includes SHIELD Officers, Madama HYDRAs and custom SHIELD Officers. Any mention of SHIELD Officer or Madama HYDRA refers to this stack.</t>
+  </si>
+  <si>
+    <t>Face-down. Includes Wounds, Grievous Wounds and Bindings. Any mention of Wound or Bindings refers to this stack.</t>
+  </si>
+  <si>
+    <t>Bystander stack</t>
+  </si>
+  <si>
+    <t>Wound stack</t>
+  </si>
+  <si>
+    <t>Face-down. Includes Base Set Bystanders and all custom Bystanders (physically available). Does not include the Bystanders from the Villains expansion without abilities.</t>
+  </si>
+  <si>
+    <t>Starter deck</t>
+  </si>
+  <si>
+    <t>One player starts with SHIELD starter heroes, another with HYDRA starter heroes.</t>
+  </si>
+  <si>
+    <t>HYDRA vs SHIELD</t>
+  </si>
+  <si>
+    <t>HYDRA and SHIELD are considered the same team for all intents and purposes.</t>
+  </si>
+  <si>
+    <t>Board</t>
+  </si>
+  <si>
+    <t>The Base Set board is used by default.</t>
   </si>
 </sst>
 </file>
@@ -1161,44 +1203,44 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1497,7 +1539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -1512,129 +1554,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="G1" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="35"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="31" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="5"/>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="B3" s="27"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="34"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="31"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="33"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="27"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="5"/>
       <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36" t="s">
+      <c r="I5" s="32"/>
+      <c r="J5" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="29" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="5"/>
       <c r="G6" s="20" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="36"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="27"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="31"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="33"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="30" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="25" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="5"/>
@@ -1643,17 +1685,17 @@
       <c r="I8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="29"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
       <c r="F9" s="5"/>
       <c r="G9" s="19" t="s">
         <v>158</v>
@@ -1662,10 +1704,10 @@
       <c r="I9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="33"/>
+      <c r="J9" s="24"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="31" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1673,7 +1715,7 @@
       <c r="A11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="24"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="21" t="s">
         <v>55</v>
       </c>
@@ -1686,7 +1728,7 @@
       <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="34" t="s">
         <v>159</v>
       </c>
       <c r="H12" t="s">
@@ -1703,7 +1745,7 @@
       <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="25"/>
+      <c r="G13" s="34"/>
       <c r="H13" t="s">
         <v>22</v>
       </c>
@@ -1964,6 +2006,11 @@
     <sortCondition ref="I12"/>
   </sortState>
   <mergeCells count="17">
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="E8:E9"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="D2:D9"/>
@@ -1976,11 +2023,6 @@
     <mergeCell ref="J5:J7"/>
     <mergeCell ref="I2:I6"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1991,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2582,14 +2624,76 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="154.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/support/box organization.xlsx
+++ b/support/box organization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="3" r:id="rId1"/>
@@ -1149,7 +1149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1192,9 +1192,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1203,44 +1200,50 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1539,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1554,129 +1557,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="G1" s="19" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="G1" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="28"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="27" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="23" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="5"/>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="29" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="B3" s="30"/>
-      <c r="C3" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="26"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="27"/>
+      <c r="G4" s="36" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" s="5"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="24"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="30"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+        <v>25</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="5"/>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32" t="s">
+      <c r="I5" s="33"/>
+      <c r="J5" s="33" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+        <v>22</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="20" t="s">
-        <v>19</v>
+      <c r="G6" s="19" t="s">
+        <v>164</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="32"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="30"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
+        <v>23</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="24"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="25" t="s">
+      <c r="C8" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="5"/>
@@ -1685,29 +1688,27 @@
       <c r="I8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="36"/>
-      <c r="C9" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="18" t="s">
         <v>158</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="24"/>
+      <c r="J9" s="30"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1715,11 +1716,11 @@
       <c r="A11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="21" t="s">
+      <c r="G11" s="24"/>
+      <c r="H11" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="22"/>
+      <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
@@ -1728,7 +1729,7 @@
       <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="22" t="s">
         <v>159</v>
       </c>
       <c r="H12" t="s">
@@ -1745,7 +1746,9 @@
       <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="34"/>
+      <c r="G13" s="36" t="s">
+        <v>130</v>
+      </c>
       <c r="H13" t="s">
         <v>22</v>
       </c>
@@ -1760,8 +1763,8 @@
       <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="20" t="s">
-        <v>130</v>
+      <c r="G14" s="19" t="s">
+        <v>8</v>
       </c>
       <c r="H14" t="s">
         <v>12</v>
@@ -1805,7 +1808,7 @@
       <c r="B17" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="18" t="s">
         <v>161</v>
       </c>
       <c r="H17" t="s">
@@ -1850,8 +1853,8 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="G20" s="16" t="s">
-        <v>8</v>
+      <c r="G20" s="22" t="s">
+        <v>162</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
@@ -1864,8 +1867,8 @@
       <c r="A21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="16" t="s">
-        <v>162</v>
+      <c r="G21" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="H21" t="s">
         <v>154</v>
@@ -1881,8 +1884,8 @@
       <c r="B22" t="s">
         <v>213</v>
       </c>
-      <c r="G22" s="16" t="s">
-        <v>164</v>
+      <c r="G22" s="22" t="s">
+        <v>2</v>
       </c>
       <c r="H22" t="s">
         <v>2</v>
@@ -2006,23 +2009,23 @@
     <sortCondition ref="I12"/>
   </sortState>
   <mergeCells count="17">
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="E8:E9"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="D2:D9"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="G2:G4"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="J5:J7"/>
-    <mergeCell ref="I2:I6"/>
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I2:I7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2033,7 +2036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
